--- a/Pesquisa.xlsx
+++ b/Pesquisa.xlsx
@@ -93,11 +93,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0.000000"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -109,37 +109,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,6 +131,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -162,6 +146,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -185,7 +177,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +200,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -222,31 +244,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,114 +258,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -387,7 +279,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,19 +399,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,25 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,11 +455,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,30 +503,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -523,6 +514,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,148 +557,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -706,7 +706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4116,8 +4116,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -4128,7 +4128,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12052300" y="133350"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:ext cx="4886325" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4146,10 +4146,10 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>346075</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4158,7 +4158,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12099925" y="3067050"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:ext cx="4838700" cy="2752725"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4176,8 +4176,8 @@
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
@@ -4188,7 +4188,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12061825" y="5988050"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:ext cx="4876800" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4206,10 +4206,10 @@
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>288925</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12065</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4218,7 +4218,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12042775" y="8909050"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:ext cx="4904740" cy="2714625"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4491,7 +4491,7 @@
   <sheetPr/>
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
